--- a/questionnaires/categories/mechanisms.xlsx
+++ b/questionnaires/categories/mechanisms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\questionnaires\categories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787814F1-F034-4271-925D-AC847EE18AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482DCEBD-301B-45A7-B215-7235DFF1077B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30000" yWindow="2550" windowWidth="21600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26415" yWindow="6165" windowWidth="23010" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>value</t>
   </si>
@@ -50,6 +50,27 @@
   </si>
   <si>
     <t>Produce new data /increase understanding</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Improve quality of procedures</t>
+  </si>
+  <si>
+    <t>Support professionalization</t>
+  </si>
+  <si>
+    <t>Introduce new technologies</t>
+  </si>
+  <si>
+    <t>Develop new protocols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade infrasctructure </t>
+  </si>
+  <si>
+    <t>Produce new data</t>
   </si>
 </sst>
 </file>
@@ -383,82 +404,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
